--- a/data/trans_dic/iP31A_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/iP31A_R-Habitat-trans_dic.xlsx
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>29,75%</t>
+          <t>59,95%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>29,37%</t>
+          <t>63,68%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>29,59%</t>
+          <t>62,13%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>24,73; 35,84</t>
+          <t>33,85; 80,89</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>23,29; 35,54</t>
+          <t>44,61; 81,45</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>25,84; 34,04</t>
+          <t>45,84; 76,43</t>
         </is>
       </c>
     </row>
@@ -646,7 +646,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>32,81%</t>
+          <t>29,75%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>36,8%</t>
+          <t>29,37%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>34,79%</t>
+          <t>29,59%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>26,89; 39,69</t>
+          <t>24,73; 35,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>30,81; 43,56</t>
+          <t>23,29; 35,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>30,53; 39,48</t>
+          <t>25,84; 34,04</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>59,95%</t>
+          <t>48,51%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>63,68%</t>
+          <t>49,46%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>62,13%</t>
+          <t>48,98%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>33,85; 80,89</t>
+          <t>40,33; 55,38</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>44,61; 81,45</t>
+          <t>42,41; 58,94</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>45,84; 76,43</t>
+          <t>43,56; 54,31</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>48,51%</t>
+          <t>32,81%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>49,46%</t>
+          <t>36,8%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>48,98%</t>
+          <t>34,79%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>40,33; 55,38</t>
+          <t>26,89; 39,69</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>42,41; 58,94</t>
+          <t>30,81; 43,56</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>43,56; 54,31</t>
+          <t>30,53; 39,48</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/iP31A_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/iP31A_R-Habitat-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>24,37; 46,98</t>
+          <t>24,83; 45,91</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>20,82; 36,69</t>
+          <t>21,52; 37,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>25,46; 39,5</t>
+          <t>25,17; 38,91</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>24,73; 35,84</t>
+          <t>24,51; 35,97</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>23,29; 35,54</t>
+          <t>24,19; 35,38</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>25,84; 34,04</t>
+          <t>25,75; 34,3</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>40,33; 55,38</t>
+          <t>40,79; 56,15</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>42,41; 58,94</t>
+          <t>41,77; 58,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>43,56; 54,31</t>
+          <t>43,79; 54,94</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>26,89; 39,69</t>
+          <t>26,8; 39,39</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>30,81; 43,56</t>
+          <t>31,02; 42,9</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>30,53; 39,48</t>
+          <t>30,34; 39,21</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>32,93; 39,89</t>
+          <t>32,43; 39,63</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>33,96; 41,12</t>
+          <t>33,97; 41,1</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>34,21; 39,52</t>
+          <t>34,19; 39,25</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/iP31A_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/iP31A_R-Habitat-trans_dic.xlsx
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>33,85; 80,89</t>
+          <t>32,59; 80,2</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>44,61; 81,45</t>
+          <t>42,81; 79,96</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>45,84; 76,43</t>
+          <t>46,71; 75,24</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>24,83; 45,91</t>
+          <t>24,95; 47,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>21,52; 37,04</t>
+          <t>21,54; 37,18</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>25,17; 38,91</t>
+          <t>25,05; 38,2</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>24,51; 35,97</t>
+          <t>24,66; 35,9</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>24,19; 35,38</t>
+          <t>24,19; 35,47</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>25,75; 34,3</t>
+          <t>25,93; 33,79</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>40,79; 56,15</t>
+          <t>41,04; 56,45</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>41,77; 58,49</t>
+          <t>41,75; 58,85</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>43,79; 54,94</t>
+          <t>43,5; 55,1</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>26,8; 39,39</t>
+          <t>26,74; 39,81</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>31,02; 42,9</t>
+          <t>30,68; 43,55</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>30,34; 39,21</t>
+          <t>30,4; 38,53</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>32,43; 39,63</t>
+          <t>32,54; 39,57</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>33,97; 41,1</t>
+          <t>33,76; 40,7</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>34,19; 39,25</t>
+          <t>34,18; 39,49</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/iP31A_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/iP31A_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -503,12 +503,12 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="E1" s="3" t="inlineStr">
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>59,95%</t>
+          <t>33,48%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>63,68%</t>
+          <t>40,58%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>62,13%</t>
+          <t>37,35%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>32,59; 80,2</t>
+          <t>26,25; 41,02</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>42,81; 79,96</t>
+          <t>30,9; 56,4</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>46,71; 75,24</t>
+          <t>31,43; 46,58</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>33,47%</t>
+          <t>31,84%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>28,36%</t>
+          <t>31,42%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>31,05%</t>
+          <t>31,6%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>24,95; 47,27</t>
+          <t>25,49; 40,24</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>21,54; 37,18</t>
+          <t>26,12; 38,35</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>25,05; 38,2</t>
+          <t>27,42; 36,34</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>29,75%</t>
+          <t>54,6%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>29,37%</t>
+          <t>49,27%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>29,59%</t>
+          <t>51,98%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>24,66; 35,9</t>
+          <t>44,6; 71,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>24,19; 35,47</t>
+          <t>40,88; 56,38</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>25,93; 33,79</t>
+          <t>45,68; 61,44</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>48,51%</t>
+          <t>37,56%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>49,46%</t>
+          <t>33,58%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>48,98%</t>
+          <t>35,49%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>41,04; 56,45</t>
+          <t>31,47; 44,15</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>41,75; 58,85</t>
+          <t>27,44; 40,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>43,5; 55,1</t>
+          <t>31,09; 40,18</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>32,81%</t>
+          <t>40,13%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>36,8%</t>
+          <t>37,99%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>34,79%</t>
+          <t>38,99%</t>
         </is>
       </c>
     </row>
@@ -779,86 +779,35 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>26,74; 39,81</t>
+          <t>36,01; 48,87</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>30,68; 43,55</t>
+          <t>34,4; 42,1</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>30,4; 38,53</t>
+          <t>36,1; 43,68</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>36,08%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>37,25%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>36,63%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>32,54; 39,57</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>33,76; 40,7</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>34,18; 39,49</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
